--- a/results/by_outcome/full_results_health_pc_PGI.xlsx
+++ b/results/by_outcome/full_results_health_pc_PGI.xlsx
@@ -471,32 +471,32 @@
         <v>16</v>
       </c>
       <c r="C2" t="n">
-        <v>0.854622234587759</v>
+        <v>0.908941580497606</v>
       </c>
       <c r="D2" t="n">
-        <v>0.14545799008739</v>
+        <v>0.0911546741138437</v>
       </c>
       <c r="E2" t="n">
-        <v>1.00008022467515</v>
+        <v>1.00009625461145</v>
       </c>
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2" t="n">
-        <v>0.145446321703479</v>
+        <v>0.0911459009005673</v>
       </c>
       <c r="K2" t="n">
-        <v>0.130755998929044</v>
+        <v>0.09185541392866</v>
       </c>
       <c r="L2" t="n">
-        <v>0.000252697598753523</v>
+        <v>-0.0118209738535919</v>
       </c>
       <c r="M2" t="n">
-        <v>0.00961401440790882</v>
+        <v>0.0062307079296351</v>
       </c>
       <c r="N2" t="n">
-        <v>0.131008696527797</v>
+        <v>0.0800344400750681</v>
       </c>
       <c r="O2"/>
     </row>
@@ -511,10 +511,10 @@
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3" t="n">
-        <v>0.845260166770004</v>
+        <v>0.890888161156763</v>
       </c>
       <c r="G3" t="n">
-        <v>0.130766488786581</v>
+        <v>0.0918642554358372</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -538,10 +538,10 @@
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4" t="n">
-        <v>0.845007448898668</v>
+        <v>0.9027102728336</v>
       </c>
       <c r="I4" t="n">
-        <v>0.122104959408692</v>
+        <v>0.0768200707292788</v>
       </c>
       <c r="J4"/>
       <c r="K4"/>
@@ -549,7 +549,7 @@
       <c r="M4"/>
       <c r="N4"/>
       <c r="O4" t="n">
-        <v>0.155060336111388</v>
+        <v>0.0973766088302024</v>
       </c>
     </row>
   </sheetData>
@@ -594,16 +594,16 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>0.145446321703479</v>
+        <v>0.0911459009005673</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0893140624472981</v>
+        <v>0.0360600100989626</v>
       </c>
       <c r="E2" t="n">
-        <v>0.201578580959661</v>
+        <v>0.146231791702172</v>
       </c>
       <c r="F2" t="n">
-        <v>1814</v>
+        <v>948</v>
       </c>
     </row>
     <row r="3">
@@ -614,16 +614,16 @@
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>0.131008696527797</v>
+        <v>0.0800344400750681</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0939009717259613</v>
+        <v>0.0207353841066964</v>
       </c>
       <c r="E3" t="n">
-        <v>0.168116421329633</v>
+        <v>0.13933349604344</v>
       </c>
       <c r="F3" t="n">
-        <v>1814</v>
+        <v>948</v>
       </c>
     </row>
     <row r="4">
@@ -634,16 +634,16 @@
         <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>0.155060336111388</v>
+        <v>0.0973766088302024</v>
       </c>
       <c r="D4" t="n">
-        <v>0.111770949401673</v>
+        <v>0.01605405064388</v>
       </c>
       <c r="E4" t="n">
-        <v>0.198349722821104</v>
+        <v>0.178699167016525</v>
       </c>
       <c r="F4" t="n">
-        <v>1814</v>
+        <v>948</v>
       </c>
     </row>
   </sheetData>
